--- a/data/trans_bre/P11_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>-2,62</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,49</t>
+          <t>5,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>30,9%</t>
+          <t>-4,47</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>281,2%</t>
+          <t>-38,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,18%</t>
+          <t>219,31%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>67,26%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-39,22%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 11,57</t>
+          <t>-16,09; 6,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,98; 28,83</t>
+          <t>-2,67; 14,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 14,63</t>
+          <t>-7,57; 15,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-67,66; 379,52</t>
+          <t>-21,96; 6,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-24,46; 1669,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-51,97; 243,44</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-92,48; —</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,04</t>
+          <t>-9,18</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,86</t>
+          <t>8,58</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,41</t>
+          <t>17,07</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,48%</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>58,11%</t>
+          <t>-24,04%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>89,44%</t>
+          <t>38,54%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>119,85%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>23,81%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,21; 21,52</t>
+          <t>-36,81; 15,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 27,63</t>
+          <t>-9,77; 28,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,39; 30,28</t>
+          <t>-0,88; 33,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-41,09; 93,52</t>
+          <t>-15,4; 21,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 195,66</t>
+          <t>-64,51; 67,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,81; 276,04</t>
+          <t>-31,51; 237,32</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-4,91; 498,36</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-56,79; 264,8</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-10,12</t>
+          <t>-3,71</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,45</t>
+          <t>-2,81</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>-5,26</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-35,32%</t>
+          <t>33,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-26,91%</t>
+          <t>-17,99%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-12,91%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-28,15%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,16; 12,46</t>
+          <t>-7,32; 16,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-26,01; 1,95</t>
+          <t>-18,11; 8,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,23; 5,0</t>
+          <t>-17,81; 9,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-51,93; 114,92</t>
+          <t>-18,1; 6,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-66,19; 10,02</t>
+          <t>-39,29; 261,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-59,4; 28,16</t>
+          <t>-59,9; 77,87</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-56,45; 71,53</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-69,0; 65,74</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,75</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,54</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>70,02%</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,51%</t>
+          <t>28,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>48,81%</t>
+          <t>46,25%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>26,98%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>36,96%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 14,86</t>
+          <t>-6,31; 12,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 12,28</t>
+          <t>-5,66; 15,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 14,05</t>
+          <t>-5,76; 15,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,51; 235,1</t>
+          <t>-6,4; 13,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,67; 123,47</t>
+          <t>-40,93; 191,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,83; 191,8</t>
+          <t>-34,89; 227,59</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-38,34; 287,02</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-40,68; 212,9</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>25,07%</t>
+          <t>20,13%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,21%</t>
+          <t>22,21%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8,0%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7,91%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 11,64</t>
+          <t>-16,23; 17,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 15,02</t>
+          <t>-18,34; 17,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 9,93</t>
+          <t>-17,39; 15,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-54,87; 90,98</t>
+          <t>-16,31; 17,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-44,01; 144,06</t>
+          <t>-68,45; 214,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-54,3; 78,09</t>
+          <t>-70,45; 202,32</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-68,49; 145,25</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-67,55; 181,21</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,33</t>
+          <t>17,32</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,16</t>
+          <t>24,7</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,82</t>
+          <t>24,39</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>48,25%</t>
+          <t>9,26</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>48,97%</t>
+          <t>168,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>40,89%</t>
+          <t>352,2%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>320,01%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>68,08%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 20,55</t>
+          <t>-0,72; 33,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 19,6</t>
+          <t>9,13; 40,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 22,93</t>
+          <t>8,36; 42,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-27,44; 230,15</t>
+          <t>-6,97; 29,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-22,88; 223,25</t>
+          <t>-16,91; 997,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-34,89; 206,45</t>
+          <t>43,22; 1974,66</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>36,74; 1973,64</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-43,44; 510,25</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>5,69</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>6,86</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>22,49%</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>24,54%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>21,38%</t>
+          <t>40,02%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>51,25%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>9,85%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 9,04</t>
+          <t>-6,94; 7,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 9,2</t>
+          <t>0,15; 11,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 8,94</t>
+          <t>0,38; 12,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 64,84</t>
+          <t>-5,16; 7,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 60,22</t>
+          <t>-30,97; 63,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 62,81</t>
+          <t>-2,75; 104,69</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2,09; 120,96</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-26,66; 66,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P11_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,185 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,62</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5,4</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,82</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-4,47</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-38,17%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>219,31%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>67,26%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-39,22%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-2.895674913525868</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.068416141780417</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>4.476112181913586</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-3.221072290900569</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.4238169914104001</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>2.035163694079593</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.9194379537766763</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.3150353712305042</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-16,09; 6,23</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,67; 14,63</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-7,57; 15,49</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-21,96; 6,86</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-92,48; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-16.18559537579654</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.804697742701319</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-5.457584275108452</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-19.02298913666684</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="n">
+        <v>-0.9228208650205986</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.794322975621685</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>14.18457942518216</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>15.8418800335665</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>8.089792666348371</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-9,18</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>8,58</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>17,07</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>4,08</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-24,04%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>38,54%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>119,85%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>23,81%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-36,81; 15,09</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-9,77; 28,07</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,88; 33,68</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-15,4; 21,49</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-64,51; 67,43</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-31,51; 237,32</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-4,91; 498,36</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-56,79; 264,8</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-15.76596585379346</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>4.478664102956792</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>16.54643423232017</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>5.083562391423585</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.361280155630243</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.1730360406590627</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.123875536919917</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.3075355507322611</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,56</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,71</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,81</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-5,26</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>33,74%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-17,99%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-12,91%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-28,15%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-41.3048962080963</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-15.53915588329925</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.859886010982934</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-13.77526939992577</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.6826888592936237</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.4213989813550897</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.08900475365553263</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.5203237324012713</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,32; 16,27</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-18,11; 8,71</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-17,81; 9,66</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-18,1; 6,22</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-39,29; 261,76</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-59,9; 77,87</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-56,45; 71,53</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-69,0; 65,74</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>8.378483371714307</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>24.94564013259704</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>33.12895642257542</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>22.60097934181422</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.3488377661579106</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.859723701608585</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>4.6955006290216</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>3.019046458182362</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +813,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,26</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,34</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,01</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,36</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>28,55%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>46,25%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>26,98%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>36,96%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>4.925336011561628</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-3.152780293067256</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-2.011879300725949</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-5.833347827851779</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.4026444433068627</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.1582717335193367</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.09674694362584868</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.3051518094747966</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-6,31; 12,32</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-5,66; 15,09</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-5,76; 15,17</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-6,4; 13,97</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-40,93; 191,24</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-34,89; 227,59</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-38,34; 287,02</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-40,68; 212,9</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.200249467429695</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-17.05743406196028</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-16.70158112161253</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-18.98755350742335</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.380734546449532</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.5943386102498518</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.5472059119120027</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.7006014371568356</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>15.80393870259229</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>9.189305844422023</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>10.39695811518366</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>6.031321543565582</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>2.755395080740803</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.8322613262302391</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.8337550935713534</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.6018822341590626</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,27</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3,65</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,44</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,41</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>20,13%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>22,21%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>8,0%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>7,91%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-16,23; 17,37</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-18,34; 17,74</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-17,39; 15,0</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-16,31; 17,22</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-68,45; 214,66</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-70,45; 202,32</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-68,49; 145,25</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-67,55; 181,21</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>4.742347223598835</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>6.189492551584872</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2.253890238041593</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>5.038759022066539</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.4304620853126694</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.5497309278364948</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.1890105132381274</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.470893620372403</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>17,32</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>24,7</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>24,39</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>9,26</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>168,84%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>352,2%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>320,01%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>68,08%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.838532569399588</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.046401438072538</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-7.270950715015255</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-5.164701534643704</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.3493395768029126</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2954041557990141</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.4444126307214207</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3699322726597569</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-0,72; 33,25</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>9,13; 40,45</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>8,36; 42,25</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-6,97; 29,05</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-16,91; 997,46</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>43,22; 1974,66</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>36,74; 1973,64</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-43,44; 510,25</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>14.78993283535946</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>16.4450466629885</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>14.07615488336829</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>14.51116397931309</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>2.342048887830059</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>2.526096360515679</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.44223103896741</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>2.289565027572391</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1013,295 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1,68</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>5,69</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>6,86</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>9,88%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>40,02%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>51,25%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>9,85%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>1.582610285722644</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>2.73800573496123</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.01614565192982476</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-0.4809381270807878</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.09543568613351952</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.1665014327036242</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>-0.0009038414275260064</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>-0.02701693553506451</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-6,94; 7,87</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>0,15; 11,77</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>0,38; 12,54</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-5,16; 7,64</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-30,97; 63,01</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-2,75; 104,69</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>2,09; 120,96</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-26,66; 66,4</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-18.94691107118367</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-20.90186505953731</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-19.65511067187733</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-18.40111696852543</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.7159236369409208</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.7255072262813417</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.720985570689771</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.7106745494537138</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>15.48191739623633</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>16.46441930264785</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>13.66703582246362</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>14.31711123497616</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>1.956434771722903</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>2.011693599585517</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>1.386411489351963</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>1.556228169171745</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>13.75302207928219</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>24.39406953487484</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>23.03304439808247</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>8.773331702805983</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>1.014255732015722</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>3.504764397753133</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>3.045617853067871</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0.6165021414742551</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-8.095907968460196</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>8.859165672497921</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>6.91430646242335</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-9.057777076866641</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.5292094278084284</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>0.4175555388648862</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>0.3188378578666605</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.4315946277099295</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>30.39484426583619</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>41.03909356753635</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>42.24756400477126</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>27.995301770207</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>5.742595145582399</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>20.37011890626949</v>
+      </c>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="n">
+        <v>5.096824044612269</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-0.4432409930306691</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>4.990630478243801</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>6.380632784032267</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1.580716809581603</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>-0.02395817857226566</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.3398434807723288</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.4763971206320133</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.1064003862912625</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-8.96805841215628</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.7192350603354244</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.1209607824097423</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-4.722777194634334</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.3553173078435123</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.06616282079976436</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.02231062454743125</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.2560313689783346</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>6.579421104534909</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>10.9219878338312</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>12.07103356962366</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>7.709431107620284</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.4968293887722964</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.9543229360693681</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>1.116260863928293</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.6708064249140938</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1309,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
